--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283592.5265727821</v>
+        <v>281154.0534730346</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12222289.2920963</v>
+        <v>12222289.29209629</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>282.4605077549094</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>113.1521883635968</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>182.2739422348834</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.278369283070923</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>212.6652167733024</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.9446243547902</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>26.79406931039841</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3027765898636</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>77.84724700848588</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.5267620887755</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>221.5979551933718</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13466185210518</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179435</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>243.4759147696085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>218.227129859624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>53.76947475493767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1918.208919851714</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C2" t="n">
-        <v>1549.246402911303</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.980704304552</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>1076.685564543343</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>665.6996597537359</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>250.6272095987323</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176916</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915836</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>2304.808759915836</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1768.325760502316</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>1768.325760502316</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>1768.325760502316</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>1620.412666919923</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>1620.412666919923</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735003</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.32286476305</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2533.219997888693</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2278.535509682807</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1989.118339645846</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X4" t="n">
-        <v>1989.118339645846</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1768.325760502316</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3298.541105134021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3045.010628407857</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2713.947741064286</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2361.179085794172</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>1987.713327533092</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4656,7 +4656,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>890.261655505063</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C7" t="n">
-        <v>721.3254725771561</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D7" t="n">
-        <v>721.3254725771561</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>573.412378994763</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>426.5224314968526</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1758.830508009166</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1537.063892578692</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1247.961025704335</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X7" t="n">
-        <v>1071.910120335303</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y7" t="n">
-        <v>1071.910120335303</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2158.017852261501</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1789.055335321089</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1430.789636714338</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1045.001384116094</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261501</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4893,40 +4893,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1792.883624328743</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1792.883624328743</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1503.780757454386</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1249.096269248499</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>959.6790992115388</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>731.6895483135214</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6895483135214</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5258,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,7 +6224,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,46 +6443,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,13 +7008,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
@@ -7029,13 +7029,13 @@
         <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>57.2667530620519</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>112.3338221524371</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>156.7474389759573</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>43.04708356698248</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012262</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>68.29586847696697</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>982018.6741185101</v>
+        <v>982018.67411851</v>
       </c>
     </row>
     <row r="3">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019035</v>
+        <v>335917.9865019033</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="G2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="G2" t="n">
-        <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="J2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="L2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605027</v>
@@ -26350,10 +26350,10 @@
         <v>363215.9698605026</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49019.07124050432</v>
+        <v>49019.07124050424</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26442,19 +26442,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="L4" t="n">
-        <v>12386.92018181818</v>
-      </c>
       <c r="M4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1149779.771027586</v>
+        <v>-1149966.164416126</v>
       </c>
       <c r="C6" t="n">
-        <v>169960.9009243649</v>
+        <v>169960.9009243652</v>
       </c>
       <c r="D6" t="n">
         <v>169960.9009243647</v>
       </c>
       <c r="E6" t="n">
-        <v>-75705.94195257784</v>
+        <v>-75740.67987801365</v>
       </c>
       <c r="F6" t="n">
-        <v>249706.5198547776</v>
+        <v>249671.7819293419</v>
       </c>
       <c r="G6" t="n">
-        <v>249706.5198547775</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="H6" t="n">
-        <v>249706.5198547773</v>
+        <v>249671.7819293416</v>
       </c>
       <c r="I6" t="n">
-        <v>249706.5198547775</v>
+        <v>249671.7819293416</v>
       </c>
       <c r="J6" t="n">
-        <v>32175.31745750004</v>
+        <v>32140.57953206406</v>
       </c>
       <c r="K6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293416</v>
       </c>
       <c r="L6" t="n">
-        <v>249706.5198547773</v>
+        <v>249671.7819293417</v>
       </c>
       <c r="M6" t="n">
-        <v>164651.4919192655</v>
+        <v>164616.7539938299</v>
       </c>
       <c r="N6" t="n">
-        <v>249706.5198547774</v>
+        <v>249671.7819293416</v>
       </c>
       <c r="O6" t="n">
-        <v>249706.5198547776</v>
+        <v>249671.7819293419</v>
       </c>
       <c r="P6" t="n">
-        <v>249706.5198547776</v>
+        <v>249671.7819293417</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.54563095404628</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>268.7781817086649</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.85778156328863</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.32826741621739</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>177.1239008292218</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.72303166916463</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>111.921778322956</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.1562795319074</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>185.2780905483396</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>145.6343634793367</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098577</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1777416630679</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,10 +34147,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033042</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,13 +35504,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>416.6233618831937</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,10 +37795,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
